--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H2">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I2">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J2">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>11.23020933333333</v>
+        <v>0.288167</v>
       </c>
       <c r="N2">
-        <v>33.690628</v>
+        <v>0.576334</v>
       </c>
       <c r="O2">
-        <v>0.4111393124289954</v>
+        <v>0.01041095464791083</v>
       </c>
       <c r="P2">
-        <v>0.4111393124289954</v>
+        <v>0.00696480652690157</v>
       </c>
       <c r="Q2">
-        <v>8.463944864614</v>
+        <v>0.104451604323</v>
       </c>
       <c r="R2">
-        <v>50.78366918768399</v>
+        <v>0.417806417292</v>
       </c>
       <c r="S2">
-        <v>0.02977078241293466</v>
+        <v>0.0004560323047274467</v>
       </c>
       <c r="T2">
-        <v>0.02061998548483333</v>
+        <v>0.0002090381412567565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H3">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I3">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J3">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.08464233333333</v>
+        <v>12.49901533333333</v>
       </c>
       <c r="N3">
-        <v>48.253927</v>
+        <v>37.497046</v>
       </c>
       <c r="O3">
-        <v>0.5888606875710045</v>
+        <v>0.4515669100864271</v>
       </c>
       <c r="P3">
-        <v>0.5888606875710045</v>
+        <v>0.4531394481677785</v>
       </c>
       <c r="Q3">
-        <v>12.1226169375385</v>
+        <v>4.530505588858</v>
       </c>
       <c r="R3">
-        <v>72.735701625231</v>
+        <v>27.183033533148</v>
       </c>
       <c r="S3">
-        <v>0.0426396670696264</v>
+        <v>0.01978003993963117</v>
       </c>
       <c r="T3">
-        <v>0.0295332955600058</v>
+        <v>0.01360029565921687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,25 +658,25 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1204533333333333</v>
+        <v>0.362469</v>
       </c>
       <c r="H4">
-        <v>0.36136</v>
+        <v>0.724938</v>
       </c>
       <c r="I4">
-        <v>0.01157271058383726</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J4">
-        <v>0.01202332143722345</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,33 +685,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.23020933333333</v>
+        <v>3.382917666666666</v>
       </c>
       <c r="N4">
-        <v>33.690628</v>
+        <v>10.148753</v>
       </c>
       <c r="O4">
-        <v>0.4111393124289954</v>
+        <v>0.1222187218011882</v>
       </c>
       <c r="P4">
-        <v>0.4111393124289954</v>
+        <v>0.1226443366768434</v>
       </c>
       <c r="Q4">
-        <v>1.352716148231111</v>
+        <v>1.226202783719</v>
       </c>
       <c r="R4">
-        <v>12.17444533408</v>
+        <v>7.357216702313999</v>
       </c>
       <c r="S4">
-        <v>0.00475799627237861</v>
+        <v>0.005353561442612082</v>
       </c>
       <c r="T4">
-        <v>0.004943260108812848</v>
+        <v>0.003680984400007515</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,22 +723,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1204533333333333</v>
+        <v>0.362469</v>
       </c>
       <c r="H5">
-        <v>0.36136</v>
+        <v>0.724938</v>
       </c>
       <c r="I5">
-        <v>0.01157271058383726</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J5">
-        <v>0.01202332143722345</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.08464233333333</v>
+        <v>11.50911</v>
       </c>
       <c r="N5">
-        <v>48.253927</v>
+        <v>34.52733</v>
       </c>
       <c r="O5">
-        <v>0.5888606875710045</v>
+        <v>0.4158034134644739</v>
       </c>
       <c r="P5">
-        <v>0.5888606875710045</v>
+        <v>0.4172514086284765</v>
       </c>
       <c r="Q5">
-        <v>1.937448784524445</v>
+        <v>4.17169559259</v>
       </c>
       <c r="R5">
-        <v>17.43703906072</v>
+        <v>25.03017355554</v>
       </c>
       <c r="S5">
-        <v>0.006814714311458651</v>
+        <v>0.01821348717466505</v>
       </c>
       <c r="T5">
-        <v>0.007080061328410597</v>
+        <v>0.01252317039383178</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,87 +782,87 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>3.418481</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H6">
-        <v>10.255443</v>
+        <v>0.36136</v>
       </c>
       <c r="I6">
-        <v>0.3284350059443207</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J6">
-        <v>0.3412233995741729</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>11.23020933333333</v>
+        <v>0.288167</v>
       </c>
       <c r="N6">
-        <v>33.690628</v>
+        <v>0.576334</v>
       </c>
       <c r="O6">
-        <v>0.4111393124289954</v>
+        <v>0.01041095464791083</v>
       </c>
       <c r="P6">
-        <v>0.4111393124289954</v>
+        <v>0.00696480652690157</v>
       </c>
       <c r="Q6">
-        <v>38.39025723202266</v>
+        <v>0.03471067570666667</v>
       </c>
       <c r="R6">
-        <v>345.5123150882039</v>
+        <v>0.20826405424</v>
       </c>
       <c r="S6">
-        <v>0.135032542521561</v>
+        <v>0.0001515456803536396</v>
       </c>
       <c r="T6">
-        <v>0.1402903538856098</v>
+        <v>0.00010419928700736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.418481</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H7">
-        <v>10.255443</v>
+        <v>0.36136</v>
       </c>
       <c r="I7">
-        <v>0.3284350059443207</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J7">
-        <v>0.3412233995741729</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.08464233333333</v>
+        <v>12.49901533333333</v>
       </c>
       <c r="N7">
-        <v>48.253927</v>
+        <v>37.497046</v>
       </c>
       <c r="O7">
-        <v>0.5888606875710045</v>
+        <v>0.4515669100864271</v>
       </c>
       <c r="P7">
-        <v>0.5888606875710045</v>
+        <v>0.4531394481677785</v>
       </c>
       <c r="Q7">
-        <v>54.98504420829567</v>
+        <v>1.505548060284445</v>
       </c>
       <c r="R7">
-        <v>494.865397874661</v>
+        <v>13.54993254256</v>
       </c>
       <c r="S7">
-        <v>0.1934024634227597</v>
+        <v>0.00657317382781711</v>
       </c>
       <c r="T7">
-        <v>0.2009330456885631</v>
+        <v>0.006779342287774416</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,25 +906,25 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.416583</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H8">
-        <v>0.833166</v>
+        <v>0.36136</v>
       </c>
       <c r="I8">
-        <v>0.04002375326389206</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J8">
-        <v>0.02772144849614155</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,33 +933,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.23020933333333</v>
+        <v>3.382917666666666</v>
       </c>
       <c r="N8">
-        <v>33.690628</v>
+        <v>10.148753</v>
       </c>
       <c r="O8">
-        <v>0.4111393124289954</v>
+        <v>0.1222187218011882</v>
       </c>
       <c r="P8">
-        <v>0.4111393124289954</v>
+        <v>0.1226443366768434</v>
       </c>
       <c r="Q8">
-        <v>4.678314294708</v>
+        <v>0.4074837093422222</v>
       </c>
       <c r="R8">
-        <v>28.069885768248</v>
+        <v>3.66735338408</v>
       </c>
       <c r="S8">
-        <v>0.01645533839774434</v>
+        <v>0.001779060611990085</v>
       </c>
       <c r="T8">
-        <v>0.01139737727423944</v>
+        <v>0.001834861081619002</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -974,19 +974,19 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.416583</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H9">
-        <v>0.833166</v>
+        <v>0.36136</v>
       </c>
       <c r="I9">
-        <v>0.04002375326389206</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J9">
-        <v>0.02772144849614155</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.08464233333333</v>
+        <v>11.50911</v>
       </c>
       <c r="N9">
-        <v>48.253927</v>
+        <v>34.52733</v>
       </c>
       <c r="O9">
-        <v>0.5888606875710045</v>
+        <v>0.4158034134644739</v>
       </c>
       <c r="P9">
-        <v>0.5888606875710045</v>
+        <v>0.4172514086284765</v>
       </c>
       <c r="Q9">
-        <v>6.700588557147</v>
+        <v>1.3863106632</v>
       </c>
       <c r="R9">
-        <v>40.203531342882</v>
+        <v>12.4767959688</v>
       </c>
       <c r="S9">
-        <v>0.02356841486614771</v>
+        <v>0.006052587233149101</v>
       </c>
       <c r="T9">
-        <v>0.0163240712219021</v>
+        <v>0.006242427426228247</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.101608333333333</v>
+        <v>2.99067</v>
       </c>
       <c r="H10">
-        <v>3.304825</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I10">
-        <v>0.1058384526655689</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J10">
-        <v>0.1099595231037524</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>11.23020933333333</v>
+        <v>0.288167</v>
       </c>
       <c r="N10">
-        <v>33.690628</v>
+        <v>0.576334</v>
       </c>
       <c r="O10">
-        <v>0.4111393124289954</v>
+        <v>0.01041095464791083</v>
       </c>
       <c r="P10">
-        <v>0.4111393124289954</v>
+        <v>0.00696480652690157</v>
       </c>
       <c r="Q10">
-        <v>12.37129218667778</v>
+        <v>0.8618124018900001</v>
       </c>
       <c r="R10">
-        <v>111.3416296801</v>
+        <v>5.170874411340001</v>
       </c>
       <c r="S10">
-        <v>0.04351434865747077</v>
+        <v>0.003762644895920019</v>
       </c>
       <c r="T10">
-        <v>0.045208682723897</v>
+        <v>0.002587107164663781</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.101608333333333</v>
+        <v>2.99067</v>
       </c>
       <c r="H11">
-        <v>3.304825</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I11">
-        <v>0.1058384526655689</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J11">
-        <v>0.1099595231037524</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.08464233333333</v>
+        <v>12.49901533333333</v>
       </c>
       <c r="N11">
-        <v>48.253927</v>
+        <v>37.497046</v>
       </c>
       <c r="O11">
-        <v>0.5888606875710045</v>
+        <v>0.4515669100864271</v>
       </c>
       <c r="P11">
-        <v>0.5888606875710045</v>
+        <v>0.4531394481677785</v>
       </c>
       <c r="Q11">
-        <v>17.71897603308611</v>
+        <v>37.38043018694</v>
       </c>
       <c r="R11">
-        <v>159.470784297775</v>
+        <v>336.4238716824601</v>
       </c>
       <c r="S11">
-        <v>0.06232410400809811</v>
+        <v>0.163201741517914</v>
       </c>
       <c r="T11">
-        <v>0.06475084037985541</v>
+        <v>0.1683205855638005</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.597592</v>
+        <v>2.99067</v>
       </c>
       <c r="H12">
-        <v>13.792776</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I12">
-        <v>0.44171962805982</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J12">
-        <v>0.4589190263438706</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.23020933333333</v>
+        <v>3.382917666666666</v>
       </c>
       <c r="N12">
-        <v>33.690628</v>
+        <v>10.148753</v>
       </c>
       <c r="O12">
-        <v>0.4111393124289954</v>
+        <v>0.1222187218011882</v>
       </c>
       <c r="P12">
-        <v>0.4111393124289954</v>
+        <v>0.1226443366768434</v>
       </c>
       <c r="Q12">
-        <v>51.63192058925866</v>
+        <v>10.11719037817</v>
       </c>
       <c r="R12">
-        <v>464.6872853033279</v>
+        <v>91.05471340353</v>
       </c>
       <c r="S12">
-        <v>0.181608304166906</v>
+        <v>0.0441713238913581</v>
       </c>
       <c r="T12">
-        <v>0.188679652951603</v>
+        <v>0.04555676326349486</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.597592</v>
+        <v>2.99067</v>
       </c>
       <c r="H13">
-        <v>13.792776</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I13">
-        <v>0.44171962805982</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J13">
-        <v>0.4589190263438706</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,772 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.08464233333333</v>
+        <v>11.50911</v>
       </c>
       <c r="N13">
-        <v>48.253927</v>
+        <v>34.52733</v>
       </c>
       <c r="O13">
-        <v>0.5888606875710045</v>
+        <v>0.4158034134644739</v>
       </c>
       <c r="P13">
-        <v>0.5888606875710045</v>
+        <v>0.4172514086284765</v>
       </c>
       <c r="Q13">
-        <v>73.95062291459467</v>
+        <v>34.4199500037</v>
       </c>
       <c r="R13">
-        <v>665.555606231352</v>
+        <v>309.7795500333</v>
       </c>
       <c r="S13">
-        <v>0.260111323892914</v>
+        <v>0.150276381397183</v>
       </c>
       <c r="T13">
-        <v>0.2702393733922676</v>
+        <v>0.1549898198261958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.308666</v>
+      </c>
+      <c r="H14">
+        <v>0.617332</v>
+      </c>
+      <c r="I14">
+        <v>0.03730121501115313</v>
+      </c>
+      <c r="J14">
+        <v>0.02555844353710854</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.288167</v>
+      </c>
+      <c r="N14">
+        <v>0.576334</v>
+      </c>
+      <c r="O14">
+        <v>0.01041095464791083</v>
+      </c>
+      <c r="P14">
+        <v>0.00696480652690157</v>
+      </c>
+      <c r="Q14">
+        <v>0.08894735522200001</v>
+      </c>
+      <c r="R14">
+        <v>0.355789420888</v>
+      </c>
+      <c r="S14">
+        <v>0.000388341257793086</v>
+      </c>
+      <c r="T14">
+        <v>0.0001780096143646988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.308666</v>
+      </c>
+      <c r="H15">
+        <v>0.617332</v>
+      </c>
+      <c r="I15">
+        <v>0.03730121501115313</v>
+      </c>
+      <c r="J15">
+        <v>0.02555844353710854</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.49901533333333</v>
+      </c>
+      <c r="N15">
+        <v>37.497046</v>
+      </c>
+      <c r="O15">
+        <v>0.4515669100864271</v>
+      </c>
+      <c r="P15">
+        <v>0.4531394481677785</v>
+      </c>
+      <c r="Q15">
+        <v>3.858021066878667</v>
+      </c>
+      <c r="R15">
+        <v>23.148126401272</v>
+      </c>
+      <c r="S15">
+        <v>0.01684399440505587</v>
+      </c>
+      <c r="T15">
+        <v>0.01158153900043269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.308666</v>
+      </c>
+      <c r="H16">
+        <v>0.617332</v>
+      </c>
+      <c r="I16">
+        <v>0.03730121501115313</v>
+      </c>
+      <c r="J16">
+        <v>0.02555844353710854</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.382917666666666</v>
+      </c>
+      <c r="N16">
+        <v>10.148753</v>
+      </c>
+      <c r="O16">
+        <v>0.1222187218011882</v>
+      </c>
+      <c r="P16">
+        <v>0.1226443366768434</v>
+      </c>
+      <c r="Q16">
+        <v>1.044191664499333</v>
+      </c>
+      <c r="R16">
+        <v>6.265149986996</v>
+      </c>
+      <c r="S16">
+        <v>0.004558906820294428</v>
+      </c>
+      <c r="T16">
+        <v>0.003134598354101233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.308666</v>
+      </c>
+      <c r="H17">
+        <v>0.617332</v>
+      </c>
+      <c r="I17">
+        <v>0.03730121501115313</v>
+      </c>
+      <c r="J17">
+        <v>0.02555844353710854</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.50911</v>
+      </c>
+      <c r="N17">
+        <v>34.52733</v>
+      </c>
+      <c r="O17">
+        <v>0.4158034134644739</v>
+      </c>
+      <c r="P17">
+        <v>0.4172514086284765</v>
+      </c>
+      <c r="Q17">
+        <v>3.55247094726</v>
+      </c>
+      <c r="R17">
+        <v>21.31482568356</v>
+      </c>
+      <c r="S17">
+        <v>0.01550997252800974</v>
+      </c>
+      <c r="T17">
+        <v>0.01066429656820992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.04656</v>
+      </c>
+      <c r="H18">
+        <v>3.13968</v>
+      </c>
+      <c r="I18">
+        <v>0.1264731443763564</v>
+      </c>
+      <c r="J18">
+        <v>0.1299873228742216</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.288167</v>
+      </c>
+      <c r="N18">
+        <v>0.576334</v>
+      </c>
+      <c r="O18">
+        <v>0.01041095464791083</v>
+      </c>
+      <c r="P18">
+        <v>0.00696480652690157</v>
+      </c>
+      <c r="Q18">
+        <v>0.3015840555200001</v>
+      </c>
+      <c r="R18">
+        <v>1.80950433312</v>
+      </c>
+      <c r="S18">
+        <v>0.001316706170280925</v>
+      </c>
+      <c r="T18">
+        <v>0.0009053365547688401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.04656</v>
+      </c>
+      <c r="H19">
+        <v>3.13968</v>
+      </c>
+      <c r="I19">
+        <v>0.1264731443763564</v>
+      </c>
+      <c r="J19">
+        <v>0.1299873228742216</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.49901533333333</v>
+      </c>
+      <c r="N19">
+        <v>37.497046</v>
+      </c>
+      <c r="O19">
+        <v>0.4515669100864271</v>
+      </c>
+      <c r="P19">
+        <v>0.4531394481677785</v>
+      </c>
+      <c r="Q19">
+        <v>13.08096948725334</v>
+      </c>
+      <c r="R19">
+        <v>117.72872538528</v>
+      </c>
+      <c r="S19">
+        <v>0.05711108701494583</v>
+      </c>
+      <c r="T19">
+        <v>0.05890238375603161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.04656</v>
+      </c>
+      <c r="H20">
+        <v>3.13968</v>
+      </c>
+      <c r="I20">
+        <v>0.1264731443763564</v>
+      </c>
+      <c r="J20">
+        <v>0.1299873228742216</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.382917666666666</v>
+      </c>
+      <c r="N20">
+        <v>10.148753</v>
+      </c>
+      <c r="O20">
+        <v>0.1222187218011882</v>
+      </c>
+      <c r="P20">
+        <v>0.1226443366768434</v>
+      </c>
+      <c r="Q20">
+        <v>3.540426313226667</v>
+      </c>
+      <c r="R20">
+        <v>31.86383681904</v>
+      </c>
+      <c r="S20">
+        <v>0.01545738604785541</v>
+      </c>
+      <c r="T20">
+        <v>0.01594220899030758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.04656</v>
+      </c>
+      <c r="H21">
+        <v>3.13968</v>
+      </c>
+      <c r="I21">
+        <v>0.1264731443763564</v>
+      </c>
+      <c r="J21">
+        <v>0.1299873228742216</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.50911</v>
+      </c>
+      <c r="N21">
+        <v>34.52733</v>
+      </c>
+      <c r="O21">
+        <v>0.4158034134644739</v>
+      </c>
+      <c r="P21">
+        <v>0.4172514086284765</v>
+      </c>
+      <c r="Q21">
+        <v>12.0449741616</v>
+      </c>
+      <c r="R21">
+        <v>108.4047674544</v>
+      </c>
+      <c r="S21">
+        <v>0.05258796514327421</v>
+      </c>
+      <c r="T21">
+        <v>0.05423739357311353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.44614</v>
+      </c>
+      <c r="H22">
+        <v>10.33842</v>
+      </c>
+      <c r="I22">
+        <v>0.4164540606951696</v>
+      </c>
+      <c r="J22">
+        <v>0.4280256390935731</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.288167</v>
+      </c>
+      <c r="N22">
+        <v>0.576334</v>
+      </c>
+      <c r="O22">
+        <v>0.01041095464791083</v>
+      </c>
+      <c r="P22">
+        <v>0.00696480652690157</v>
+      </c>
+      <c r="Q22">
+        <v>0.9930638253799999</v>
+      </c>
+      <c r="R22">
+        <v>5.95838295228</v>
+      </c>
+      <c r="S22">
+        <v>0.004335684338835716</v>
+      </c>
+      <c r="T22">
+        <v>0.002981115764840133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.44614</v>
+      </c>
+      <c r="H23">
+        <v>10.33842</v>
+      </c>
+      <c r="I23">
+        <v>0.4164540606951696</v>
+      </c>
+      <c r="J23">
+        <v>0.4280256390935731</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>12.49901533333333</v>
+      </c>
+      <c r="N23">
+        <v>37.497046</v>
+      </c>
+      <c r="O23">
+        <v>0.4515669100864271</v>
+      </c>
+      <c r="P23">
+        <v>0.4531394481677785</v>
+      </c>
+      <c r="Q23">
+        <v>43.07335670081333</v>
+      </c>
+      <c r="R23">
+        <v>387.66021030732</v>
+      </c>
+      <c r="S23">
+        <v>0.1880568733810631</v>
+      </c>
+      <c r="T23">
+        <v>0.1939553019005224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.44614</v>
+      </c>
+      <c r="H24">
+        <v>10.33842</v>
+      </c>
+      <c r="I24">
+        <v>0.4164540606951696</v>
+      </c>
+      <c r="J24">
+        <v>0.4280256390935731</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.382917666666666</v>
+      </c>
+      <c r="N24">
+        <v>10.148753</v>
+      </c>
+      <c r="O24">
+        <v>0.1222187218011882</v>
+      </c>
+      <c r="P24">
+        <v>0.1226443366768434</v>
+      </c>
+      <c r="Q24">
+        <v>11.65800788780667</v>
+      </c>
+      <c r="R24">
+        <v>104.92207099026</v>
+      </c>
+      <c r="S24">
+        <v>0.05089848298707807</v>
+      </c>
+      <c r="T24">
+        <v>0.05249492058731325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.44614</v>
+      </c>
+      <c r="H25">
+        <v>10.33842</v>
+      </c>
+      <c r="I25">
+        <v>0.4164540606951696</v>
+      </c>
+      <c r="J25">
+        <v>0.4280256390935731</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>11.50911</v>
+      </c>
+      <c r="N25">
+        <v>34.52733</v>
+      </c>
+      <c r="O25">
+        <v>0.4158034134644739</v>
+      </c>
+      <c r="P25">
+        <v>0.4172514086284765</v>
+      </c>
+      <c r="Q25">
+        <v>39.6620043354</v>
+      </c>
+      <c r="R25">
+        <v>356.9580390185999</v>
+      </c>
+      <c r="S25">
+        <v>0.1731630199881927</v>
+      </c>
+      <c r="T25">
+        <v>0.1785943008408973</v>
       </c>
     </row>
   </sheetData>
